--- a/result/0-shot/Baichuan-13B/response/combineddrugs/response.xlsx
+++ b/result/0-shot/Baichuan-13B/response/combineddrugs/response.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>CoT</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>（B）ARNI,二氢吡啶类CCB</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据患者的信息，我们可以得出以下结论：
+1. 年龄：52岁，属于中青年人群。
+2. 血压：收缩压148 mmHg，舒张压95 mmHg，属于高血压2级（中度）。
+3. 心率：70 bpm，属于正常范围。
+4. 腰围：95 cm，属于中心性肥胖。
+5. 血脂：LDL-C浓度为4.0 mmol/L，属于高值。
+6. 肾功能：血肌酐为70 μmol/L，属于正常范围。
+7. 治疗史：已采取生活方式干预。
+8. 吸烟：有吸烟记录。
+9. 家族史：无家族病史记录。
+根据上述信息，患者的心血管疾病危险因素包括高血压、中心性肥胖、高LDL-C、吸烟等。根据《中国高血压防治指南2018》，患者属于高血压2级，同时伴有中心性肥胖和高LDL-C，属于高血压合并心血管疾病高风险人群。因此，患者的危险因素分层属于高危组。
+在联合用药方案的选择上，我们需要考虑患者的危险因素和潜在的心血管风险。根据《中国高血压防治指南2018》，对于高血压合并心血管疾病高风险人群，推荐使用ARNI（血管紧张素受体脑啡肽酶抑制剂）、β受体阻滞剂、醛固酮受体拮抗剂等非利尿剂类药物。
+因此，根据患者的危险因素分层和联合用药原则，最适合患者的联合用药方案是：
+（F）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平
+这个方案包含了ARNI、β受体阻滞剂、醛固酮受体拮抗剂和非洛地平，这些药物都能有效降低血压，减少心血管事件的风险。</t>
         </is>
       </c>
     </row>
@@ -567,7 +581,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素、目标器官损害及并发症情况。
+患者为54岁男性，收缩压（SBP）153 mmHg，舒张压（DBP）95 mmHg，属于高血压2级（高度危险）；同时，患者有血脂异常，且曾进行冠状动脉血运重建手术，属于高血压合并冠心病（极高危险）。
+根据《中国高血压防治指南2018》，对于高血压合并冠心病的高危患者，推荐使用ACEI（血管紧张素转化酶抑制剂）、β受体阻滞剂、醛固酮受体拮抗剂等药物，以降低心脏事件风险。同时，由于患者有血脂异常，应考虑使用他汀类药物进行调脂治疗。
+结合上述分析，患者需要联合用药，以控制血压和降低心血管事件风险。因此，最合适的联合用药方案是包含ACEI、β受体阻滞剂、醛固酮受体拮抗剂的方案。
+根据提供的选项，（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平 是适合该患者的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -620,7 +638,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>（A）ACEI,二氢吡啶类CCB</t>
+          <t>在评估心血管疾病的风险分层时，我们主要考虑的是患者的血压、年龄、性别、糖尿病、血脂异常、吸烟、肥胖、家族史等因素。根据《中国高血压防治指南2018》，高血压患者的心血管疾病风险分层主要依据血压水平、是否存在其他心血管危险因素以及是否有靶器官损害。
+对于这位54岁的患者，其收缩压为145 mmHg，舒张压为93 mmHg，属于高血压2级，即中度高血压。根据指南，患者没有糖尿病、血脂异常、吸烟、肥胖等心血管危险因素，也没有靶器官损害的证据。因此，根据这些因素，我们可以将患者归为高血压2级，但无其他心血管危险因素及靶器官损害的高危组。
+在药物治疗方案的选择上，对于无其他心血管危险因素及靶器官损害的高危组患者，首选的单药治疗是ACEI或ARB，其次是钙通道阻滞剂（CCB）。如果单药治疗不能达到目标血压，可以考虑联合用药。
+根据上述分析，我们可以排除选项（A）和（E），因为它们只包含了ACEI或CCB，对于高血压2级且无其他心血管危险因素及靶器官损害的患者来说，可能需要更全面的降压治疗。
+接下来，我们来看选项（B）至（G）。选项（B）包含ARB和非洛地平，而选项（C）至（G）都包含了ACEI、β受体阻滞剂、醛固酮受体拮抗剂、利尿剂等。考虑到患者的血压水平和无其他心血管危险因素及靶器官损害的情况，我们可以认为这些联合用药方案可能都是合适的。
+然而，由于患者没有糖尿病、血脂异常、吸烟、肥胖等心血管危险因素，我们通常不会首选β受体阻滞剂作为初始治疗，除非有特定的临床指征。同样，醛固酮受体拮抗剂通常用于有低血钾或高血压合并心力衰竭的患者。
+因此，结合患者的具体情况，我们可以认为选项（B）和（C）至（G）都是可能的合适选择。但是，考虑到患者没有糖尿病、血脂异常、吸烟、肥胖等心血管危险因素，并且没有靶器官损害，我们可能会倾向于选择包含ACEI和CCB的方案，如选项（B）和（C）。
+最终，根据患者的具体情况，我会推荐选项（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平或者选项（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平作为适合患者的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -673,7 +698,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂</t>
+          <t>根据《中国高血压防治指南2018》，对于53岁的男性高血压患者，首先需要确定其心血管疾病的危险因素分层。根据患者的血压值、心率、心电图Sokolow-Lyon电压以及实验室检查结果，我们可以进行以下分析：
+1. 患者的收缩压（SBP）为153 mmHg，属于高血压2级（中度）。
+2. 舒张压（DBP）为92 mmHg，属于正常范围。
+3. 心率70 bpm，属于正常范围。
+4. 心电图Sokolow-Lyon电压为4.3 mV，属于正常范围。
+5. 血钾浓度为4.0 mmol/L，属于正常范围。
+6. 血肌酐为70 μmol/L，属于正常范围。
+7. 患者无吸烟或饮酒史，无既往病史记录，无手术史记录，无家族病史记录。
+根据上述信息，患者的心血管疾病危险因素分层为低危。因此，在联合用药方案的选择上，应考虑使用对低危患者有效的药物组合。
+选项分析如下：
+（A）ARB,β受体阻滞剂,襻利尿剂,地高辛 - 这个方案中，ARB和β受体阻滞剂都是有效的降压药物，但地高辛主要用于治疗心力衰竭，且襻利尿剂可能增加电解质紊乱的风险，不适合低危患者。
+（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂 - ARNI是近年来新推出的降压药，适用于高血压合并左心室肥厚或心力衰竭的患者，但患者的心电图和肾功能正常，因此这个方案可能不是最佳选择。
+（C）β受体阻滞剂,二氢吡啶类CCB - 二氢吡啶类CCB如氨氯地平，适用于高血压合并心绞痛或脑血管病风险高的患者，但患者为低危，故此方案可能不是最佳选择。
+（D）ARB,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平 - 这个方案结合了ARB、β受体阻滞剂和醛固酮受体拮抗剂，适合低危患者，但氨氯地平作为二氢吡啶类CCB，可能不是最佳选择。
+（E）非二氢吡啶类CCB,ACEI - 非二氢吡啶类CCB如非洛地平，适用于高血压合并心绞痛或脑血管病风险高的患者，但患者为低危，故此方案可能不是最佳选择。
+（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平 - 这个方案中，ACEI和β受体阻滞剂都是有效的降压药物，但袢利尿剂可能增加电解质紊乱的风险，且非洛地平作为二氢吡啶类CCB，可能不是最佳选择。
+（G）β受体阻滞剂,ACEI,噻嗪类利尿剂 - 这个方案中，ACEI和β受体阻滞剂都是有效的降压药物，但噻嗪类利尿剂可能增加电解质紊乱的风险，且患者为低危，故此方案可能不是最佳选择。
+综上所述，根据患者的危险因素分层为低危，最合适的联合用药方案应该是既能够有效控制血压，又能够减少不良反应的药物组合。因此，结合患者的血压值和心电图结果，以及《中国高血压防治指南2018》的建议，最合适的联合用药方案可能是：
+（D）ARB,β受体阻滞剂,醛固酮受体拮抗剂</t>
         </is>
       </c>
     </row>
@@ -726,7 +769,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们主要关注几个关键因素：血压、心率、血脂、血糖、体重指数(BMI)、家族史、年龄、性别、吸烟和饮酒史等。
+根据患者描述，该患者为55岁男性，收缩压（SBP）148 mmHg，舒张压（DBP）94 mmHg，心率70 bpm，血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L，颈动脉超声显示内中膜厚度（IMT）为1.2 mm。
+根据《中国高血压防治指南2018》，我们可以将患者的心血管疾病危险因素进行分层：
+1. 血压：SBP 148 mmHg，DBP 94 mmHg，属于高血压2级（高度危险）。
+2. 心率：70 bpm，属于正常范围。
+3. 血脂：未提供，无法判断。
+4. 血糖：未提供，无法判断。
+5. 体重指数(BMI)：未提供，无法判断。
+6. 家族史：无家族病史记录。
+7. 年龄：55岁，属于中年人群。
+8. 性别：男性。
+9. 吸烟和饮酒史：无吸烟或饮酒史记录。
+根据上述信息，我们可以初步判断患者属于高血压2级，需要联合用药控制血压。
+根据《中国高血压防治指南2018》，对于高血压2级的治疗，推荐使用以下联合用药方案：
+- ARNI (Angiotensin Receptor Neprilysine Inhibitor) 如沙库巴曲沙坦
+- β受体阻滞剂 如美托洛尔
+- 醛固酮受体拮抗剂 如螺内酯
+- 非二氢吡啶类CCB 如维拉帕米
+- 噻嗪类利尿剂 如氢氯噻嗪
+因此，根据患者的具体情况，最合适的联合用药方案是：
+（A）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平</t>
         </is>
       </c>
     </row>
@@ -777,7 +840,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>（B）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>在《中国高血压防治指南2018》中，高血压的危险因素分层主要依据年龄、血压水平、其他心血管危险因素的数量以及靶器官损害的程度。根据患者的描述，我们可以进行以下分析：
+1. 患者年龄为55岁，属于中年人群；
+2. 收缩压（SBP）为148 mmHg，舒张压（DBP）为94 mmHg，属于高血压2级（中度）；
+3. 患者有颈动脉粥样硬化，表明存在心血管危险因素；
+4. 实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L，表明肾功能正常；
+5. 患者无吸烟或饮酒史，无家族病史，表明其他心血管危险因素较少。
+根据以上分析，患者属于高血压2级，伴有心血管危险因素（颈动脉粥样硬化），但无糖尿病、血脂异常等其他心血管危险因素，也无靶器官损害。因此，患者属于高血压2级，高危组。
+在联合用药方案的选择上，《中国高血压防治指南2018》推荐：
+- 对于高血压2级，高危组的患者，推荐使用ACEI（或ARB）+ 钙通道阻滞剂（CCB）+ 利尿剂作为基础治疗方案。
+- 如果患者不能耐受ACEI（或ARB），可以考虑使用ARB替代。
+- 如果患者不能耐受CCB，可以考虑使用二氢吡啶类CCB替代。
+根据上述推荐，结合患者的具体情况，我们可以排除选项（A）、（B）、（C）、（D）、（E）、（F）、（G），因为它们没有包含ACEI（或ARB）+ 钙通道阻滞剂（CCB）+ 利尿剂的联合用药方案。
+因此，最合适的联合用药方案是（A）ARNI,噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -830,7 +905,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>（A）β受体阻滞剂,ACEI,二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>根据《中国高血压防治指南2018》，对于56岁的男性高血压患者，首先需要考虑的是心血管疾病的危险因素分层。根据患者的血压值（SBP 157 mmHg，DBP 93 mmHg），可以初步判断为2级高血压（中度）。此外，患者的心率偏慢（50 bpm），这可能与血压控制不佳有关，也可能与患者存在其他心脏疾病有关。
+在风险评估方面，患者的BMI为30.0 kg/m^2，属于超重范围；血钾浓度为4.0 mmol/L，略低，可能与降压药物的使用有关；血肌酐为70 μmol/L，正常范围内；心电图显示Sokolow-Lyon电压为4.3 mV，这个指标在高血压患者中通常不单独使用，因为其诊断价值有限。
+根据上述信息，该患者的心血管疾病风险属于中高危。因此，在联合用药方案的选择上，应该考虑包括利尿剂、钙通道阻滞剂（CCB）、血管紧张素转换酶抑制剂（ACEI）或血管紧张素受体阻滞剂（ARB）在内的药物组合。
+根据这些考虑，最合适的选项是：
+（E）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂
+ARNI（Angiotensin Receptor Neprilysins）是一种新型降压药，具有降低血压的同时保护心脏的作用。醛固酮受体拮抗剂如螺内酯或依普利酮可以降低血压并保护肾脏。噻嗪类利尿剂如氢氯噻嗪可以帮助降低血压。β受体阻滞剂如美托洛尔可以降低心率，减少心肌耗氧量，对心脏有保护作用。
+综上所述，患者的心血管疾病风险属于中高危，因此推荐使用包含ARNI、β受体阻滞剂、醛固酮受体拮抗剂及噻嗪类利尿剂的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -883,7 +964,18 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>（B）襻利尿剂,直接血管扩张药物</t>
+          <t>在评估心血管疾病的危险因素分层时，我们主要依据的是患者的血压水平、其他相关危险因素以及合并症。根据《中国高血压防治指南2018》，我们可以将高血压患者分为低危组、中危组和高危组。
+对于这位56岁的女性患者，她的血压为149/93 mmHg，属于2级高血压（中度）。同时，她的血钾浓度为4.0 mmol/L，低于正常范围（3.5-5.0 mmol/L），这可能与利尿剂的长期应用有关。此外，她的24小时白蛋白尿为10 mg，提示可能存在肾脏损害。
+根据这些因素，我们可以初步判断该患者属于高危组。因此，我们需要选择能够同时控制血压和保护心脏、肾脏的药物。
+现在我们来分析各个选项：
+（A）ARB,β受体阻滞剂,襻利尿剂,地高辛：这个方案可能不适合，因为地高辛主要用于心功能不全的患者，而该患者没有心功能不全的病史。
+（B）襻利尿剂,直接血管扩张药物：这个方案可能不适合，因为直接血管扩张药物可能会进一步降低血钾，而患者血钾已经偏低。
+（C）二氢吡啶类CCB,α受体阻滞剂：这个方案可能不适合，因为α受体阻滞剂可能会引起体位性低血压，而患者没有这方面的风险。
+（D）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平：这个方案可能适合，因为ACEI和醛固酮受体拮抗剂可以保护肾脏，氨氯地平可以控制血压，β受体阻滞剂可以降低心率。
+（E）β受体阻滞剂,噻嗪类利尿剂：这个方案可能不适合，因为噻嗪类利尿剂可能会导致血钾降低。
+（F）ACEI,二氢吡啶类CCB：这个方案可能不适合，因为二氢吡啶类CCB可能会引起血钾降低。
+（G）二氢吡啶类CCB,保钾利尿剂：这个方案可能适合，因为保钾利尿剂不会导致血钾降低。
+综上所述，最合适的联合用药方案是（D）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平。</t>
         </is>
       </c>
     </row>
@@ -936,7 +1028,15 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>（D）二氢吡啶类CCB,ACEI,β受体阻滞剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据患者描述，患者年龄为50岁，收缩压为147 mmHg，舒张压为96 mmHg，属于1级高血压。此外，患者有白蛋白尿（70 mg/24h），血肌酐正常（60 μmol/L），但血钾稍低（4.0 mmol/L），提示可能存在肾小球硬化。因此，患者属于高血压合并慢性肾脏病（CKD）3期。
+根据《中国高血压防治指南2018》，对于高血压合并慢性肾脏病患者，推荐使用ACEI、ARB、钙通道阻滞剂（CCB）、利尿剂等药物。同时，由于患者存在白蛋白尿，可能伴有左室肥厚，因此推荐使用β受体阻滞剂。
+综上所述，患者适合使用的联合用药方案应该包括ACEI、ARB、CCB和β受体阻滞剂。在提供的选项中，符合这一条件的有：
+（D）二氢吡啶类CCB,ACEI,β受体阻滞剂
+（E）ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平
+其中，（D）选项中包含二氢吡啶类CCB（如氨氯地平），ACEI（如依那普利），β受体阻滞剂（如美托洛尔），符合高血压合并慢性肾脏病的治疗原则。
+（E）选项中包含ARB（如缬沙坦），β受体阻滞剂，醛固酮受体拮抗剂（如螺内酯），噻嗪类利尿剂（如氢氯噻嗪）以及氨氯地平，虽然涵盖了ACEI、ARB、CCB和利尿剂，但是醛固酮受体拮抗剂的加入并不是必须的，因为患者没有低钾血症的症状。
+因此，根据患者的病情和《中国高血压防治指南2018》的建议，最适合患者的联合用药方案是（D）二氢吡啶类CCB,ACEI,β受体阻滞剂。</t>
         </is>
       </c>
     </row>
@@ -989,7 +1089,10 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>（E）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们主要考虑的是患者的血压水平、其他心血管危险因素以及合并症。根据《中国高血压防治指南2018》，我们可以将高血压患者分为低危组、中危组和高危组。
+在这个案例中，患者是一位50岁的女性，收缩压为158 mmHg，舒张压为94 mmHg，属于高血压病。此外，患者有缺血性脑卒中的病史，这是心血管疾病的一个危险因素。
+根据《中国高血压防治指南2018》，对于高危组的患者，推荐使用ACEI（血管紧张素转化酶抑制剂）、ARNI（血管紧张素受体脑啡肽酶抑制剂）、β受体阻滞剂、醛固酮受体拮抗剂等药物进行治疗。同时，也可以考虑使用噻嗪类利尿剂来降低血压。
+因此，结合上述分析，我们可以得出结论，最适合该患者的联合用药方案是（E）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1145,25 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压值、其他心血管危险因素以及靶器官损害情况。
+患者信息：50岁男性；
+体格检查：收缩压（SBP）156 mmHg，舒张压（DBP）93 mmHg；
+辅助检查：血钾浓度为4.0 mmol/L，血肌酐为66 μmol/L；
+药物治疗史：已采取生活方式干预；
+既往史：有稳定性心绞痛；
+手术史：无手术史记录；
+个人史：无吸烟或饮酒史记录；
+家族史：无家族病史记录。
+根据上述信息，该患者属于高血压2级（中度），合并有稳定性心绞痛，无其他心血管危险因素，无靶器官损害证据。因此，根据《中国高血压防治指南2018》，该患者的治疗策略是降压治疗，同时控制心绞痛症状。
+选项分析如下：
+（A）ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平 —— 这个方案中包含了ARB和ACEI，但缺少了醛固酮受体拮抗剂，且噻嗪类利尿剂通常用于低钾血症患者。
+（B）襻利尿剂,直接血管扩张药物 —— 这个方案没有包含ACEI或ARB，对于高血压患者来说，缺乏这些药物是不理想的。
+（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平 —— 这个方案包含了ACEI、ARB、β受体阻滞剂、醛固酮受体拮抗剂和二氢吡啶类CCB，适合于高血压合并心绞痛的患者。
+（D）β受体阻滞剂,二氢吡啶类CCB —— 这个方案缺少了ACEI或ARB，对于高血压合并心绞痛的患者来说，缺乏这些药物是不理想的。
+（E）甲基多巴,肼屈嗪 —— 这两种药物已经很少使用，且甲基多巴可能引起中枢神经系统副作用。
+（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂 —— 这个方案包含了ACEI、ARB、β受体阻滞剂、醛固酮受体拮抗剂和噻嗪类利尿剂，适合于高血压合并心绞痛的患者。
+（G）β受体阻滞剂,ACEI —— 这个方案缺少了ARB，对于高血压合并心绞痛的患者来说，缺乏这些药物是不理想的。
+综上所述，最适合患者的联合用药方案是（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平。</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1216,10 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>（A）ACEI,二氢吡啶类CCB</t>
+          <t>根据《中国高血压防治指南2018》，对于这位59岁的女性高血压患者，我们可以根据她的危险因素进行分层。
+首先，她的收缩压为158 mmHg，属于2级高血压；其次，她有心肌梗死的病史，这是心血管疾病的一个重要危险因素；此外，她无吸烟或饮酒史，这有助于降低心血管风险。
+在药物选择方面，ACEI（血管紧张素转化酶抑制剂）、β受体阻滞剂和醛固酮受体拮抗剂是高血压治疗的一线药物，它们可以有效地降低血压，减少心脏负荷，改善心肌缺血。
+因此，对于这位患者，我建议的联合用药方案是（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平。这种组合可以有效地控制血压，减少心脏负荷，改善心肌缺血，预防心血管疾病的发生和发展。</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1272,13 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>（A）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据患者的信息，患者为56岁女性，收缩压156 mmHg，舒张压92 mmHg，心率64 bpm，血钾4.0 mmol/L，血肌酐62 μmol/L，有慢性心力衰竭的既往史。
+根据《中国高血压防治指南2018》，患者的血压属于2级高血压，同时由于患者有慢性心力衰竭的病史，因此属于高血压合并心力衰竭的高危人群。此外，血钾4.0 mmol/L在正常范围内，但考虑到患者有慢性心力衰竭，可能需要进一步监测血钾水平。
+在药物治疗方面，患者已经采取了生活方式干预，但没有吸烟或饮酒史，因此不需要考虑这些因素。
+根据以上分析，我们可以排除一些药物组合。例如，非二氢吡啶类CCB（如氨氯地平）通常不用于高血压合并心力衰竭的患者，因为它们可能会增加心脏负荷。地高辛虽然可以用于心力衰竭的治疗，但由于患者没有明确的心律失常，因此不是首选。
+剩下的选项中，（A）ACEI（血管紧张素转化酶抑制剂）、β受体阻滞剂、醛固酮受体拮抗剂、袢利尿剂是治疗高血压合并心力衰竭的常用药物，（B）非洛地平是一种钙通道阻滞剂，通常不用于心力衰竭的治疗。（C）ARNI（血管紧张素II受体拮抗剂）、β受体阻滞剂、袢利尿剂也是治疗高血压合并心力衰竭的常用药物。
+综上所述，最适合患者的联合用药方案应该是（A）ACEI、β受体阻滞剂、醛固酮受体拮抗剂、袢利尿剂。</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1331,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>（D）ARNI,醛固酮受体拮抗剂</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们需要考虑多个因素，包括血压、心率、肾功能、电解质水平以及患者的年龄、性别等。根据《中国高血压防治指南2018》，我们可以将患者的心血管疾病危险因素分为低危、中危和高危三个层次。
+首先，根据患者的血压值，收缩压为154 mmHg，舒张压为93 mmHg，属于高血压范畴。其次，患者的心率为64 bpm，属于正常范围。再次，患者的血钾浓度为4.0 mmol/L，低于正常范围（正常值为3.5-5.0 mmol/L），这可能提示患者存在电解质紊乱，需要进一步检查以确定原因。此外，患者的血肌酐为62 μmol/L，属于正常范围。
+根据以上信息，我们可以初步判断患者的心血管疾病危险因素属于中危层次。
+接下来，我们来看选项中的联合用药方案。根据《中国高血压防治指南2018》，对于中危层次的高血压患者，推荐使用的药物包括ACEI（血管紧张素转化酶抑制剂）、ARNI（血管紧张素受体脑啡肽酶抑制剂）、β受体阻滞剂、醛固酮受体拮抗剂等。
+因此，根据患者的病情和《中国高血压防治指南2018》的建议，最适合患者的联合用药方案是包含ACEI、ARNI、β受体阻滞剂和醛固酮受体拮抗剂的方案。
+综上所述，最符合题意的选项是：
+（A）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1390,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>（D）二氢吡啶类CCB,ACEI</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病(CVD)的危险因素分层是根据患者的血压水平、其他心血管风险因素以及是否存在靶器官损害来进行的。
+根据患者的描述，我们可以分析如下：
+- 年龄：56岁，属于中老年人群，是高血压的高发年龄段。
+- 血压：收缩压（SBP）147 mmHg，舒张压（DBP）92 mmHg，属于高血压2级（中度）。
+- 心率：68 bpm，属于正常范围。
+- 血钾：4.0 mmol/L，正常范围。
+- 血肌酐：59 μmol/L，正常范围。
+- 药物治疗史：已采取生活方式干预。
+- 既往史：有慢性心力衰竭（HFpEF）。
+- 手术史：无手术史记录。
+- 个人史：无吸烟或饮酒史记录。
+- 家族史：无家族病史记录。
+根据上述信息，患者属于高血压2级，伴有慢性心力衰竭，但无其他显著的心血管疾病危险因素。因此，根据《中国高血压防治指南2018》，患者的心血管疾病危险因素分层可能属于中危或高危。
+在联合用药方案的选择上，需要考虑药物的作用机制以及患者的个体差异。对于高血压患者，通常推荐使用ACEI、ARB、CCB、β受体阻滞剂等药物。对于伴有慢性心力衰竭的患者，可能需要使用ARNI（一种新型的ARB类药物）、醛固酮受体拮抗剂等药物。
+根据上述分析，以下联合用药方案可能适合患者：
+- ARNI（作为ARB类药物的升级替代）+ β受体阻滞剂 + 醛固酮受体拮抗剂
+- ACEI（如依那普利）+ β受体阻滞剂 + 醛固酮受体拮抗剂
+因此，最合适的选项可能是（A）ARNI（作为ARB类药物的升级替代）+ β受体阻滞剂 + 醛固酮受体拮抗剂。</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1460,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB,非二氢吡啶类CCB</t>
+          <t>在评估心血管疾病的危险因素分层时，我们主要依据患者的血压水平、其他相关危险因素以及是否存在并发症等因素。根据《中国高血压防治指南2018》，高血压的分级和治疗方案如下：
+1. 1级高血压（轻度）：收缩压140-159mmHg或舒张压90-99mmHg。
+2. 2级高血压（中度）：收缩压160mmHg以上或舒张压100mmHg以上。
+3. 合并其他心血管疾病风险因素：包括糖尿病、高脂血症、肥胖、吸烟、年龄（男性≥55岁，女性≥65岁）等。
+4. 合并症：如冠心病、脑血管病、肾脏疾病、周围血管病等。
+根据患者的描述，患者为56岁女性，收缩压148 mmHg，舒张压92 mmHg，心率72 bpm，存在缺血性脑卒中和颅内大动脉粥样硬化性狭窄，属于2级高血压且合并其他心血管疾病风险因素。
+因此，根据《中国高血压防治指南2018》，患者需要使用两种降压药物联合治疗，首选ACEI和ARB类药物，其次为钙通道阻滞剂（CCB）和β受体阻滞剂。
+选项中，（D）β受体阻滞剂,ACEI 是适合患者的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1520,21 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 血压水平：正常血压、高血压1级、高血压2级。
+2. 心脏结构与功能：左心室射血分数(LVEF)≤40%。
+3. 肾功能：正常肾功能、轻度肾功能不全（血肌酐133-177 μmol/L）、中度肾功能不全（血肌酐178-256 μmol/L）、重度肾功能不全（血肌酐≥257 μmol/L）。
+4. 血糖控制情况：正常血糖、糖尿病。
+5. 血脂水平：正常血脂、高血脂。
+6. 年龄：&lt;65岁、≥65岁。
+7. 性别：男性、女性。
+8. 吸烟：不吸烟、吸烟。
+9. 血脂水平：正常血脂、高血脂。
+10. 体重指数(BMI)：&lt;24 kg/m²、≥24 kg/m²。
+根据患者描述，该患者为46岁女性，收缩压158 mmHg，舒张压96 mmHg，心率64 bpm，实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为22 μmol/L，超声检查提示左心室射血分数（LVEF）为30%，有慢性心力衰竭的既往史。
+根据上述信息，该患者属于高血压2级，伴有左心室射血分数降低的心力衰竭（LVEF≤40%），属于高血压合并心力衰竭的高危人群，同时伴有肾功能不全（血肌酐22 μmol/L）。因此，在药物治疗上需要综合考虑降压、保护心脏、改善心功能、保护肾脏等多方面因素。
+根据《中国高血压防治指南2018》，对于高血压合并心力衰竭的患者，首选的降压药物是血管紧张素转换酶抑制剂（ACEI）或血管紧张素受体阻滞剂（ARB）；对于心力衰竭的治疗，首选的药物是血管紧张素受体脑啡肽酶抑制剂（ARNI）。
+结合以上信息，该患者最合适的联合用药方案应该包括ACEI、ARNI以及β受体阻滞剂。因此，最符合的选项是（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1587,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,襻利尿剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据提供的数据，患者年龄为48岁，女性，收缩压157 mmHg，舒张压94 mmHg，心率68 bpm，血钾4.0 mmol/L，血肌酐22 μmol/L，左心室射血分数（LVEF）为70%，有慢性心力衰竭的病史。
+根据《中国高血压防治指南2018》，高血压患者的心血管疾病风险分层主要依据以下因素：
+- 年龄：≥65岁为高风险；
+- 收缩压：≥160 mmHg为高风险；
+- 舒张压：≥100 mmHg为高风险；
+- 心率：≥80 bpm为高风险；
+- 血肌酐：男性≥133 μmol/L、女性≥124 μmol/L为高风险；
+- LVEF：&lt;50%为高风险；
+- 慢性心力衰竭：有此病史的患者为高风险。
+结合上述信息，患者年龄为48岁，收缩压157 mmHg，心率68 bpm，血肌酐22 μmol/L，LVEF为70%，且有慢性心力衰竭的病史，因此属于高风险层。
+接下来，我们考虑联合用药方案的选择。《中国高血压防治指南2018》推荐的高风险层患者联合用药方案包括：
+- ACEI+ARB+CCB+利尿剂；
+- ACEI+ARB+CCB+β受体阻滞剂；
+- ACEI+ARB+CCB+利尿剂；
+- ARB+CCB+利尿剂+β受体阻滞剂。
+根据患者的具体情况，我们可以排除选项（A）二氢吡啶类CCB,ARB，因为患者有慢性心力衰竭，二氢吡啶类CCB可能会加重心力衰竭的症状。同样，选项（B）袢利尿剂,直接血管扩张药物也不适合，因为患者已经有心力衰竭。
+选项（C）ACEI,β受体阻滞剂,襻利尿剂可能不适合，因为患者血钾水平较低（4.0 mmol/L），β受体阻滞剂可能会进一步降低血钾水平，增加心律失常的风险。
+选项（D）β受体阻滞剂,ACEI,非二氢吡啶类CCB,噻嗪类利尿剂可能是一个合适的联合用药方案，因为ACEI和ARB可以降低血压，减少心脏负荷，非二氢吡啶类CCB和噻嗪类利尿剂可以进一步降低血压，而β受体阻滞剂可以降低心率，减少心肌耗氧量。
+选项（E）ARB,β受体阻滞剂可能不适合，因为患者有慢性心力衰竭，β受体阻滞剂可能会加重心力衰竭症状。
+选项（F）β受体阻滞剂,ARB,噻嗪类利尿剂可能是一个合适的联合用药方案，因为ARB和噻嗪类利尿剂可以降低血压，β受体阻滞剂可以降低心率，减少心肌耗氧量。
+综上所述，根据患者的具体病情和《中国高血压防治指南2018》的建议，选项（D）β受体阻滞剂,ACEI,非二氢吡啶类CCB,噻嗪类利尿剂可能是最合适的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1660,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素及靶器官损害情况。
+患者信息：56岁男性，收缩压（SBP）158 mmHg，舒张压（DBP）93 mmHg，心率64 bpm，血钾浓度为4.0 mmol/L，血肌酐为152 μmol/L。
+根据上述信息，患者属于1级高血压（轻度），伴有1个其他心血管危险因素（血肌酐升高），无靶器官损害。
+根据《中国高血压防治指南2018》，对于1级高血压患者，首选单药治疗，如血压仍不能得到有效控制，则可以考虑联合用药。
+选项分析如下：
+（A）拉贝洛尔和硝苯地平均为钙通道阻滞剂，可以联合使用，但缺乏其他药物以控制血压和其他心血管危险因素。
+（B）ACEI（血管紧张素转化酶抑制剂）和噻嗪类利尿剂可以联合使用，但缺乏β受体阻滞剂或醛固酮受体拮抗剂来进一步控制血压和降低心血管风险。
+（C）ACEI、β受体阻滞剂和醛固酮受体拮抗剂可以联合使用，但缺乏二氢吡啶类CCB来控制血压。
+（D）ARB（血管紧张素II受体拮抗剂）、β受体阻滞剂和醛固酮受体拮抗剂可以联合使用，但缺乏二氢吡啶类CCB来控制血压。
+（E）二氢吡啶类CCB（钙通道阻滞剂）、β受体阻滞剂可以联合使用，但缺乏醛固酮受体拮抗剂来降低心血管风险。
+（F）ARNI（血管紧张素受体脑啡肽酶抑制剂）、β受体阻滞剂、醛固酮受体拮抗剂和氨氯地平可以联合使用，但缺乏噻嗪类利尿剂来控制血压。
+（G）ACEI、β受体阻滞剂和袢利尿剂可以联合使用，但缺乏地高辛来控制血压。
+综上所述，选项（D）ARB、β受体阻滞剂、醛固酮受体拮抗剂联合用药方案最适合该患者的治疗需求，因为它涵盖了控制血压、降低心血管风险的多种药物类型。</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1725,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>（B）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、是否存在其他心血管危险因素以及是否有靶器官损害。
+患者信息：54岁男性，收缩压152 mmHg，舒张压98 mmHg，属于高血压2级（中度）。
+体格检查：心率66 bpm，正常范围。
+辅助检查：血钾浓度4.0 mmol/L，正常范围；血肌酐220 μmol/L，轻度升高，提示可能存在肾功能损害；有白蛋白尿12 mg/24h，提示可能存在肾脏损害。
+药物治疗史：已采取生活方式干预。
+既往史、手术史、个人史、家族史均无记录，说明患者没有已知的其他心血管危险因素。
+综合以上信息，患者属于高血压2级，伴有靶器官损害（肾功能损害），但无其他心血管危险因素。因此，患者属于高血压2级，伴有靶器官损害的高危组。
+根据《中国高血压防治指南2018》，对于高血压2级，伴有靶器官损害的患者，首选的联合用药方案是：
+（A）二氢吡啶类CCB（如氨氯地平）+ α受体阻滞剂
+（B）ACEI（如依那普利）+ β受体阻滞剂 + 醛固酮受体拮抗剂 + 噻嗪类利尿剂
+（C）ARNI（如沙库巴曲沙坦）+ β受体阻滞剂 + 醛固酮受体拮抗剂 + 袢利尿剂
+（D）ARB（如阿利沙坦）+ β受体阻滞剂 + 袢利尿剂
+选项（A）和（B）中包含了二氢吡啶类CCB，而（C）和（D）中包含了ARNI。由于患者有肾功能损害，因此（B）和（D）都是合适的选项。但是，（B）中同时包含了噻嗪类利尿剂，而（D）中包含了袢利尿剂，两者在临床上通常不会联合使用，因为它们都有排钾作用，可能会加重低钾血症的风险。
+因此，最合适的联合用药方案是（D）ARB（阿利沙坦）+ β受体阻滞剂 + 袢利尿剂。</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1791,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>（A）</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据患者的年龄、血压值、心率、血钾、血肌酐、白蛋白尿等指标，我们可以进行以下分析：
+1. 年龄：49岁，属于中青年人群。
+2. 血压：收缩压158 mmHg，舒张压94 mmHg，属于高血压2级（中度）。
+3. 心率：62 bpm，属于正常范围。
+4. 血钾：4.0 mmol/L，属于正常范围。
+5. 血肌酐：176 μmol/L，属于轻度升高，可能与高血压有关。
+6. 白蛋白尿：56 mg/24h，属于微量白蛋白尿，可能提示肾脏损伤。
+根据以上情况，患者的心血管疾病危险因素分层可能为：
+- 高血压2级（中度）
+- 微量白蛋白尿
+- 血肌酐轻度升高
+根据《中国高血压防治指南2018》，对于高血压合并微量白蛋白尿的患者，推荐使用ACEI（血管紧张素转化酶抑制剂）或ARB（血管紧张素受体阻滞剂）类药物，以及钙通道阻滞剂（CCB）。同时，可以考虑使用利尿剂以降低血压。
+因此，结合患者的病情和《中国高血压防治指南2018》的建议，以下联合用药方案可能适合患者：
+- ACEI（如依那普利）+ CCB（如氨氯地平）+ 噻嗪类利尿剂（如氢氯噻嗪）
+- ARB（如缬沙坦）+ CCB（如氨氯地平）+ 噻嗪类利尿剂（如氢氯噻嗪）
+在给出的选项中，（A）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平；（D）非二氢吡啶类CCB,ACEI,噻嗪类利尿剂；（F）二氢吡啶类CCB,ACEI,β受体阻滞剂；（G）襻利尿剂,直接血管扩张药物都不包含ACEI或ARB类药物，因此不太适合患者的情况。
+综合以上分析，最合适的联合用药方案可能是（D）非二氢吡啶类CCB,ACEI,噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1860,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>（B）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>在《中国高血压防治指南2018》中，高血压的危险分层主要依据血压水平、是否存在并发症以及心血管风险因素。根据患者的年龄、血压值、心率、肾功能、尿蛋白以及是否有其他心血管疾病的风险因素，我们可以对患者的危险分层进行判断。
+该患者为43岁男性，收缩压147 mmHg，舒张压94 mmHg，心率68 bpm，血肌酐128 μmol/L，血钾4.0 mmol/L，白蛋白尿330 mg/24h。患者年轻且血压较高，存在肾功能异常和白蛋白尿，提示可能存在肾脏损害，属于高血压合并肾病的高危人群。
+根据上述信息，我们可以将患者分为高血压2级，伴有肾脏损害，属于高血压合并肾病的高危人群。
+在联合用药方案的选择上，需要考虑药物之间的相互作用及患者的个体差异。
+（A）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平
+（B）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂
+（C）ACEI,β受体阻滞剂,地高辛
+（D）二氢吡啶类CCB,α受体阻滞剂
+（E）ACEI,二氢吡啶类CCB
+（F）二氢吡啶类CCB,ACEI,β受体阻滞剂
+（G）二氢吡啶类CCB,ARB,β受体阻滞剂
+根据《中国高血压防治指南2018》，对于高血压合并肾病的高危人群，推荐使用ACEI、ARB、β受体阻滞剂等药物，同时注意避免使用可能加重肾功能损害的药物如利尿剂和非洛地平。
+因此，最合适的联合用药方案是（G）二氢吡啶类CCB,ARB,β受体阻滞剂。</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1925,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB,ACEI,β受体阻滞剂</t>
+          <t>根据《中国高血压防治指南2018》，对于这位44岁的男性高血压患者，我们可以按照心血管风险分层来制定治疗方案。首先，我们需要确定他的心血管风险分层。
+根据患者的血压值（SBP 158 mmHg，DBP 96 mmHg），他属于1级高血压（轻度）。然而，由于他的血肌酐水平为320 μmol/L，这提示可能存在肾功能不全的风险，因此需要进一步评估其心血管风险。
+患者的实验室检查结果包括血钾浓度为4.0 mmol/L，白蛋白尿为12 mg/24h，血肌酐为320 μmol/L。这些指标表明患者存在肾脏损害，可能属于高血压合并慢性肾脏病（CKD）。
+根据《中国高血压防治指南2018》，对于这类患者，我们通常推荐使用ACEI、ARB、CCB、利尿剂等药物。同时，考虑到患者的心率63 bpm，β受体阻滞剂也是合适的治疗选择。
+现在我们来分析给出的选项：
+（A）ACEI,β受体阻滞剂,地高辛
+（B）二氢吡啶类CCB,ACEI,β受体阻滞剂
+（C）尼卡地平,拉贝洛尔
+（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平
+（E）二氢吡啶类CCB,袢利尿剂
+（F）ARB,β受体阻滞剂,襻利尿剂,地高辛
+（G）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平
+根据患者的病情，选项（A）、（B）、（C）、（D）、（E）、（F）、（G）均有可能适合，但我们需要考虑患者的肾功能状态。由于患者存在肾功能不全，我们通常避免使用地高辛，因为地高辛主要经肾脏排泄，可能会加重肾功能不全。
+因此，结合患者的血压水平、肾功能状态以及实验室检查结果，我们可以考虑以下联合用药方案：
+（B）二氢吡啶类CCB,ACEI,β受体阻滞剂
+（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平
+（E）二氢吡啶类CCB,袢利尿剂
+其中，（B）和（D）方案中包含了ACEI和ARNI，这两种药物对肾功能不全的患者是安全的。此外，（D）方案还包含了一个醛固酮受体拮抗剂，这对于控制血压和改善肾功能可能是有益的。
+综上所述，我倾向于选择（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平作为该患者的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1996,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>（A）二氢吡啶类CCB,ARB</t>
+          <t>首先，我们来分析患者的临床情况。患者是一位54岁的男性，有高血压病史，血压值为152/98 mmHg，属于2级高血压。此外，患者的血肌酐水平升高，提示可能存在肾功能损害。白蛋白尿浓度为12 mg/24h，表明患者存在微量白蛋白尿，这可能是肾脏病变的早期标志。
+根据《中国高血压防治指南2018》，对于2级高血压患者，如果伴有肾功能损害、糖尿病或心脏疾病等心血管风险因素，推荐使用联合用药方案。对于肾功能损害的患者，ACEI（血管紧张素转化酶抑制剂）是首选药物，因为它可以延缓肾小球硬化和降低蛋白尿。
+结合患者的具体情况，我们可以排除一些选项：
+- 选项B（甲基多巴,肼屈嗪）通常用于轻中度高血压的治疗，对于2级高血压且伴有肾功能损害的患者来说，效果可能不够理想。
+- 选项C（ARNI,β受体阻滞剂,襻利尿剂）中，ARNI（Angiotensin Receptor Neprilysine Inhibitor）是ACEI的一种，但通常不与其他降压药物联用，因为可能会增加低血压的风险。
+- 选项D（β受体阻滞剂,ACEI,二氢吡啶类CCB,噻嗪类利尿剂）中，ACEI是首选药物，但二氢吡啶类CCB（如非洛地平）通常不与其他降压药物联用，因为可能会增加低血压的风险。
+- 选项E（ACEI,β受体阻滞剂,地高辛）中，地高辛主要用于治疗心力衰竭，对于高血压的治疗作用不大。
+- 选项F（二氢吡啶类CCB,噻嗪类利尿剂）中，二氢吡啶类CCB通常不与其他降压药物联用，因为可能会增加低血压的风险。
+因此，最合适的联合用药方案应该是：
+- 选项G（ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平）。
+ARB（Angiotensin II Receptor Blocker）与ACEI有相似的作用机制，但副作用较少。β受体阻滞剂可以降低心率，减少心肌耗氧量，对心脏有益。醛固酮受体拮抗剂可以帮助改善肾功能。噻嗪类利尿剂可以帮助控制血压。非洛地平作为二氢吡啶类CCB，与其他降压药物联用是安全的。</t>
         </is>
       </c>
     </row>
@@ -1784,7 +2059,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,袢利尿剂,地高辛</t>
+          <t>根据《中国高血压防治指南2018》，对于该患者的危险因素分层，需要考虑以下因素：
+1. 年龄：44岁，属于中青年人群。
+2. 血压：收缩压158 mmHg，舒张压96 mmHg，属于2级高血压。
+3. 心率：63 bpm，属于正常范围。
+4. 实验室检查：血钾4.0 mmol/L，血肌酐107 μmol/L，提示存在电解质紊乱和肾功能不全。
+5. 既往史：有慢性心力衰竭和慢性肾病5期，正在进行血液透析。
+6. 个人史：无吸烟或饮酒史记录。
+7. 家族史：无家族病史记录。
+根据上述信息，该患者属于高危/极高危高血压患者，同时伴有慢性心力衰竭、慢性肾病和电解质紊乱。因此，在联合用药方案的选择上，需要考虑药物对心、肾功能的保护作用以及可能引起的电解质紊乱。
+选项分析如下：
+（A）非二氢吡啶类CCB, ARB：适合于高血压合并冠心病患者，但不适合于肾功能不全患者。
+（B）ARB, β受体阻滞剂, 襻利尿剂, 地高辛：ARB和β受体阻滞剂适用于高血压合并心力衰竭患者，襻利尿剂和地高辛适用于心力衰竭治疗，但需考虑肾功能不全患者使用利尿剂可能导致的电解质紊乱。
+（C）ARB, 噻嗪类利尿剂：ARB适用于高血压合并心力衰竭患者，噻嗪类利尿剂适用于高血压合并心力衰竭患者，但需考虑肾功能不全患者使用利尿剂可能导致的电解质紊乱。
+（D）拉贝洛尔, 硝苯地平：拉贝洛尔适用于高血压合并心力衰竭患者，硝苯地平适用于高血压合并冠心病患者，但需考虑肾功能不全患者使用钙通道阻滞剂可能导致的电解质紊乱。
+（E）尼卡地平, 拉贝洛尔：尼卡地平适用于高血压合并冠心病患者，拉贝洛尔适用于高血压合并心力衰竭患者，但需考虑肾功能不全患者使用钙通道阻滞剂可能导致的电解质紊乱。
+（F）ARNI, β受体阻滞剂, 醛固酮受体拮抗剂, 非洛地平：ARNI适用于高血压合并心力衰竭患者，β受体阻滞剂适用于高血压合并心力衰竭患者，醛固酮受体拮抗剂适用于高血压合并心力衰竭患者，非洛地平适用于高血压合并冠心病患者，但需考虑肾功能不全患者使用钙通道阻滞剂可能导致的电解质紊乱。
+（G）ACEI, 氨氯地平：ACEI适用于高血压合并心力衰竭患者，氨氯地平适用于高血压合并冠心病患者，但需考虑肾功能不全患者使用钙通道阻滞剂可能导致的电解质紊乱。
+综合考虑以上因素，对于该患者的联合用药方案，可以选择（B）ARB, β受体阻滞剂, 襻利尿剂, 地高辛。</t>
         </is>
       </c>
     </row>
@@ -1837,7 +2129,37 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对这位患者的心血管疾病危险因素进行分层。
+根据指南，心血管风险分层主要依据以下因素：
+- 年龄：≥65岁
+- 血压：≥140/90 mmHg
+- 血脂异常：低密度脂蛋白胆固醇（LDL-C）≥160 mg/dL
+- 糖尿病：空腹血糖≥7.0 mmol/L
+- 吸烟：目前吸烟
+- 肥胖：BMI≥28 kg/m^2
+- 家族史：父母或兄弟姐妹中早死于55岁的冠心病史
+- 慢性肾病：血肌酐≥2.5 mg/dL（男性）或≥3.0 mg/dL（女性）
+- 左室肥厚
+- 其他危险因素：如高血压、血脂异常、糖尿病、吸烟、肥胖等
+根据患者描述，患者有慢性心力衰竭和慢性肾病5期，正在进行血液透析，这属于高危组。
+接下来，我们分析给出的选项：
+（A）ARB,β受体阻滞剂,袢利尿剂,地高辛
+（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平
+（C）二氢吡啶类CCB,ARNI
+（D）二氢吡啶类CCB,ACEI,β受体阻滞剂
+（E）非二氢吡啶类CCB,ACEI
+（F）ARNI,非洛地平(药品化学名)
+（G）β受体阻滞剂,ARB,噻嗪类利尿剂
+考虑到患者的高危风险，我们需要选择能够改善心脏结构和功能的药物，同时考虑患者的肾功能状态。
+（A）地高辛不适合肾功能不全的患者。
+（B）非洛地平（非二氢吡啶类CCB）可能增加肾功能不全患者的副作用风险。
+（C）ARNI（Angiotensin Receptor Neprilysin Inhibitor）适合肾功能不全患者，但患者没有提供肾功能不全的信息。
+（D）ACEI（Angiotensin-Converting Enzyme Inhibitor）适合肾功能不全患者，但患者没有提供肾功能不全的信息。
+（E）非二氢吡啶类CCB可能增加肾功能不全患者的副作用风险。
+（F）非洛地平（非二氢吡啶类CCB）可能增加肾功能不全患者的副作用风险。
+（G）噻嗪类利尿剂可能增加肾功能不全患者的副作用风险。
+综合以上分析，最合适的联合用药方案是（C）二氢吡啶类CCB,ARNI。
+然而，由于患者正在进行血液透析，ARNI可能会影响透析效果，因此需要进一步评估ARNI在透析患者中的应用情况。如果患者接受的是血液透析而非腹膜透析，且透析充分，ARNI可能是合适的治疗选择。</t>
         </is>
       </c>
     </row>
@@ -1890,7 +2212,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB,ACEI,噻嗪类利尿剂</t>
+          <t>首先，我们来分析这位患者的危险因素：
+1. 年龄：55岁，属于中年人群，但接近老年，需要关注心血管疾病的风险。
+2. 血压：收缩压（SBP）147 mmHg，舒张压（DBP）95 mmHg，属于2级高血压。
+3. 心率：73 bpm，属于正常范围。
+4. 血糖：患者有糖尿病，这是一个重要的危险因素。
+5. 肾功能：血肌酐为72 μmol/L，属于正常范围，但考虑到患者有糖尿病，需警惕肾脏病变。
+6. 血钾：4.0 mmol/L，略低，可能与利尿剂使用有关。
+7. 治疗史：已采取生活方式干预，但血压仍高，需要药物治疗。
+8. 药物选择：需要考虑患者是否有其他并发症如心衰、心绞痛等，以及药物之间的相互作用。
+根据《中国高血压防治指南2018》，对于2级高血压且伴有糖尿病的患者，推荐使用ACEI（血管紧张素转化酶抑制剂）或ARB（血管紧张素受体阻滞剂）作为基础药物，同时结合其他降压药物如CCB（钙通道阻滞剂）、β受体阻滞剂、利尿剂等。
+因此，结合上述分析，我们可以排除选项C（甲基多巴,肼屈嗪），因为这两种药物已经较少使用，且甲基多巴对糖尿病患者可能不适用。选项D（袢利尿剂,直接血管扩张药物）也不合适，因为直接血管扩张药可能不适合所有患者，且袢利尿剂可能对血钾水平有影响。
+选项E（ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平）是一个全面的方案，但考虑到患者有糖尿病，可能需要避免使用醛固酮受体拮抗剂，因为这可能导致血钾进一步降低。
+选项F（ARNI,β受体阻滞剂,地高辛）中地高辛不适合糖尿病患者，因为它可能影响血糖控制。
+选项G（二氢吡啶类CCB,ARB,噻嗪类利尿剂）是一个合理的方案，但缺乏ACEI或ARB，这可能会影响对糖尿病患者的保护效果。
+综上所述，最合适的方案可能是选项B（二氢吡啶类CCB,ACEI,噻嗪类利尿剂），因为它包含了ACEI或ARB作为基础药物，同时结合CCB和利尿剂来进一步降低血压。然而，最佳治疗方案需要根据患者的具体情况和耐受性进行调整，因此在实际临床实践中，医生通常会与患者进行详细沟通，并根据患者的整体健康状况和个体差异来决定最终的治疗方案。</t>
         </is>
       </c>
     </row>
@@ -1943,7 +2279,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>（A）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们需要考虑多个因素，包括血压、血糖控制情况、血脂水平、肾功能、心电图表现以及是否有其他心血管疾病的风险因素。
+根据《中国高血压防治指南2018》，高血压患者的危险因素分层主要依据以下标准：
+- 第一层：单纯性高血压，无其他心血管危险因素。
+- 第二层：高血压合并至少一项其他心血管危险因素（如年龄≥55岁、吸烟、糖尿病、血脂异常等）。
+- 第三层：高血压合并至少两项其他心血管危险因素或已有心血管并发症。
+在本例中，患者有糖尿病和严重冠心病，因此属于第三层的高危患者。
+针对第三层高血压患者，推荐使用联合用药方案，包括：
+- ACEI（血管紧张素转化酶抑制剂）或ARB（血管紧张素受体阻滞剂）
+- 钙通道阻滞剂（CCB），特别是二氢吡啶类CCB
+- 利尿剂，特别是噻嗪类利尿剂
+- β受体阻滞剂
+结合上述分析，最合适的联合用药方案是包含ACEI或ARB、钙通道阻滞剂、利尿剂和β受体阻滞剂的方案。
+在提供的选项中，（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平 包含了ACEI或ARB、钙通道阻滞剂、利尿剂和β受体阻滞剂，符合第三层高血压患者的联合用药方案要求。
+因此，答案是（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平。</t>
         </is>
       </c>
     </row>
@@ -1996,7 +2345,10 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据患者的血压水平、其他心血管危险因素以及并发症情况。
+该患者为52岁女性，收缩压154 mmHg，舒张压93 mmHg，属于高血压2级（极高危）。此外，患者有糖尿病和冠心病，属于高血压合并糖尿病和冠心病的高危人群。
+根据指南，对于高血压合并糖尿病和冠心病的高危人群，推荐使用ACEI（血管紧张素转化酶抑制剂）或ARNI（血管紧张素受体脑啡肽酶抑制剂）作为基础药物，同时联合使用β受体阻滞剂、醛固酮受体拮抗剂和利尿剂。
+因此，根据患者的病情和指南推荐，最适合的联合用药方案是（E）ACEI,噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2401,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>（E）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们需要考虑多个因素，包括年龄、血压、心率、心电图、血脂水平、血糖、体重指数、吸烟与饮酒史、家族史等。
+根据《中国高血压防治指南2018》，高血压的诊断标准是：收缩压≥140mmHg和/或舒张压≥90mmHg。根据患者描述，患者的收缩压为152 mmHg，舒张压为95 mmHg，因此可以诊断为高血压。
+此外，患者有糖尿病和高尿酸血症，这些都是心血管疾病的重要危险因素。
+根据上述信息，我们可以将患者的心血管疾病危险因素分层如下：
+- 高血压
+- 糖尿病
+- 高尿酸血症
+根据《中国高血压防治指南2018》，对于合并糖尿病的高血压患者，首选的降压药物是ACEI（血管紧张素转化酶抑制剂）或ARB（血管紧张素受体阻滞剂）。同时，由于患者有糖尿病，可能需要使用胰岛素增敏剂或二甲双胍来控制血糖。
+因此，根据患者的病情和《中国高血压防治指南2018》，最适合的联合用药方案是：
+（C）ARB,二氢吡啶类CCB
+这个方案中，ARB和二氢吡啶类CCB都是适用于高血压和糖尿病患者的降压药物，可以有效地控制血压和降低心血管事件的风险。</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2464,28 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>（G）ARNI,β受体阻滞剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》来评估这位55岁高血压患者的心血管疾病风险分层。
+根据指南，高血压患者的危险因素包括年龄、血压水平、合并症、靶器官损害以及心血管疾病的家族史等。对于这位患者，我们可以根据以下信息进行分析：
+- 年龄：55岁，属于中年人群，但接近老年，需要关注心血管疾病的风险。
+- 血压：收缩压（SBP）156 mmHg，舒张压（DBP）93 mmHg，属于2级高血压（中度）。
+- 心率：75 bpm，正常范围，不影响风险评估。
+- 实验室检查：血钾浓度为4.0 mmol/L，正常范围；血肌酐为65 μmol/L，正常范围。
+- 合并症：患者有糖尿病，属于高血压合并糖尿病，增加了心血管疾病的风险。
+- 药物治疗史：已采取生活方式干预，但未提供具体干预措施。
+- 手术史：无手术史记录。
+- 个人史：无吸烟或饮酒史记录。
+- 家族史：无家族病史记录。
+根据上述信息，该患者属于高血压2级，伴有糖尿病，属于高血压合并糖尿病的高危人群。因此，根据《中国高血压防治指南2018》，我们应当选择具有降压效果同时能够改善心血管预后的药物组合。
+现在我们来分析各个选项：
+（A）ARNI（血管紧张素II受体与神经素1受体拮抗剂），β受体阻滞剂，醛固酮受体拮抗剂，噻嗪类利尿剂，氨氯地平
+（B）非二氢吡啶类CCB（钙通道阻滞剂），ACEI（血管紧张素转换酶抑制剂），噻嗪类利尿剂
+（C）ACEI，β受体阻滞剂，醛固酮受体拮抗剂，非洛地平
+（D）非二氢吡啶类CCB，噻嗪类利尿剂
+（E）ARB（血管紧张素II受体拮抗剂），噻嗪类利尿剂
+（F）二氢吡啶类CCB，ARB（血管紧张素II受体拮抗剂），β受体阻滞剂
+（G）ARNI，β受体阻滞剂
+根据指南推荐，对于高血压合并糖尿病患者，首选的降压药物包括ACEI、ARNI、ARB、CCB和β受体阻滞剂。考虑到患者的心率正常，β受体阻滞剂可以作为备选。醛固酮受体拮抗剂和噻嗪类利尿剂也是推荐的药物，但噻嗪类利尿剂可能增加血糖水平，因此需要谨慎使用。
+综上所述，结合患者的年龄、血压水平和合并症，以及《中国高血压防治指南2018》的建议，选项（A）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平是一个合适的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2538,21 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>（E）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>根据《中国高血压防治指南2018》，高血压的治疗需要综合考虑患者的年龄、血压水平、合并症、并发症、心血管风险分层以及患者的治疗反应等因素。
+首先，根据患者的年龄（55岁）和血压值（SBP 156 mmHg，DBP 93 mmHg），可以判断该患者属于高血压2级（中度）。
+其次，患者有糖尿病和前列腺增生，这增加了心血管风险。
+再次，患者的血钾浓度正常（4.0 mmol/L），血肌酐水平也正常（65 μmol/L），没有肾功能不全的迹象。
+最后，患者没有吸烟或饮酒史，无家族病史，无手术史，这有助于降低心血管风险。
+根据上述信息，我们可以将患者的心血管疾病危险因素分层为：
+- 高血压2级（中度）
+- 糖尿病
+- 前列腺增生
+- 无吸烟或饮酒史
+- 无家族病史
+在联合用药方案的选择上，我们需要考虑药物之间的相互作用以及患者的整体情况。
+根据《中国高血压防治指南2018》，对于高血压合并糖尿病的患者，推荐使用ACEI或ARB类药物，因为它们可以降低心血管事件的风险。同时，β受体阻滞剂也可以降低心血管事件的风险，并且可以减少糖尿病患者的心率。醛固酮受体拮抗剂可以帮助控制血压，并且对糖尿病患者有益。
+因此，结合患者的整体情况和上述药物的作用机制，最适合患者的联合用药方案是：
+（C）ARB,β受体阻滞剂,醛固酮受体拮抗剂</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2605,18 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>（B）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据《中国高血压防治指南2018》，高血压的危险因素包括：
+- 年龄：≥60岁
+- 血压：收缩压≥140mmHg和/或舒张压≥90mmHg
+- 血脂异常：总胆固醇≥6.2mmol/L或低密度脂蛋白胆固醇(LDL-C)≥4.1mmol/L
+- 血糖异常：空腹血糖≥7.0mmol/L或糖化血红蛋白(HbA1c)≥6.5%
+- 肾功能异常：血肌酐≥133μmol/L
+- 左心室肥厚
+- 年龄≥55岁且伴有以下任一危险因素：吸烟、血脂异常、糖尿病、肾脏疾病、慢性阻塞性肺疾病、外周动脉疾病、肥胖、多囊肾、遗传性高血压、长期精神压力过大
+根据患者的描述，患者年龄为55岁，收缩压为147mmHg，舒张压为95mmHg，有糖尿病足病史，但无其他明确的血脂、血糖、肾功能异常等危险因素。因此，患者属于高血压1级（140-159mmHg），无其他并发症的高血压患者。
+根据上述信息，我们可以排除选项（A）、（B）、（C）、（D）、（E）、（F）、（G），因为这些药物组合中包含了一些不适合该患者的药物，如ACEI、ARB、地高辛等。
+因此，最合适的联合用药方案是（H）β受体阻滞剂+CCB+利尿剂。</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2669,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>（C）ARB,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据患者描述，患者年龄57岁，男性，收缩压157 mmHg，舒张压96 mmHg，心率76 bpm，餐后血糖14.0 mmol/L，血钾4.0 mmol/L，血肌酐23 μmol/L，白蛋白尿56 mg/24h。
+根据《中国高血压防治指南2018》，我们可以将患者分为以下层次：
+- 1级高危：收缩压140~159 mmHg或舒张压90~99 mmHg，伴有糖尿病、慢性肾脏病3期以上、冠心病或脑卒中。
+- 2级高危：收缩压160~179 mmHg或舒张压100~109 mmHg，伴有糖尿病、慢性肾脏病3期以上、冠心病或脑卒中。
+患者收缩压157 mmHg，属于1级高危范畴，同时伴有餐后血糖升高，可以诊断为糖尿病前期，因此患者属于1级高危。
+根据上述信息，我们可以排除选项（A）和（B），因为它们没有包括糖尿病前期或慢性肾脏病的治疗。
+选项（C）、（D）、（E）和（F）都包括了β受体阻滞剂，但患者没有记录到任何与心脏相关的疾病，所以β受体阻滞剂可能不是首选。
+选项（G）包含了ARB，醛固酮受体拮抗剂，袢利尿剂和非洛地平，其中非洛地平是二氢吡啶类CCB，适合用于高血压的治疗。
+综上所述，患者属于1级高危，伴有糖尿病前期，因此，最适合的联合用药方案是（G）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平。</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2731,23 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>（C）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据患者的年龄、血压值、心率、实验室检查结果以及药物治疗史，我们可以得出以下结论：
+1. 年龄：52岁，属于中青年人群，但血压较高，存在心血管风险。
+2. 血压：收缩压（SBP）155 mmHg，舒张压（DBP）94 mmHg，属于高血压2级（中度）。
+3. 心率：76 bpm，正常范围，不影响风险评估。
+4. 白蛋白尿：340 mg/24h，提示可能存在肾脏损害，增加心血管风险。
+5. 血糖：餐后2h血糖为13.0 mmol/L，空腹血糖为6.6 mmol/L，提示可能存在糖尿病，增加心血管风险。
+6. 血肌酐：124 μmol/L，正常范围，不影响风险评估。
+7. 药物治疗史：已采取生活方式干预，未使用降压药物。
+8. 既往史、手术史、个人史、家族史：均无特殊记录，不影响风险评估。
+根据上述信息，患者的心血管疾病危险因素包括：
+- 高血压
+- 糖尿病
+- 白蛋白尿
+根据《中国高血压防治指南2018》，对于合并有糖尿病的高血压患者，推荐使用ACEI（血管紧张素转化酶抑制剂）或ARNI（血管紧张素受体脑啡肽酶抑制剂）作为首选药物。同时，由于患者存在白蛋白尿，可以考虑使用ARB（血管紧张素受体阻滞剂）或醛固酮受体拮抗剂。
+因此，最适合患者的联合用药方案是：
+（C）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平
+这个方案包括了ACEI或ARNI（用于控制血压和减少心脏负担）、β受体阻滞剂（降低心率，减轻心脏负担）、醛固酮受体拮抗剂（保护肾脏功能，减少蛋白尿）和非洛地平（钙通道阻滞剂，用于控制血压）。</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2800,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>（E）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据患者的年龄、血压、心率、血糖水平以及糖尿病肾病的病史，我们可以将患者分为高危组。
+接下来，我们考虑患者的药物治疗史、既往史和个人史，患者已经采取了生活方式干预，但存在糖尿病肾病，因此需要考虑降压药物的选择。
+在《中国高血压防治指南2018》中，对于高危组的患者，推荐使用ACEI（血管紧张素转化酶抑制剂）、ARB（血管紧张素受体阻滞剂）、β受体阻滞剂、醛固酮受体拮抗剂、噻嗪类利尿剂等药物。
+考虑到患者有糖尿病肾病，我们应避免使用可能加重肾脏负担的药物，如利尿剂。因此，我们排除选项B和D。
+在剩下的选项中，我们还需要考虑患者的血压控制情况。患者的收缩压较高，需要使用能够进一步降低血压的药物。二氢吡啶类CCB（如氨氯地平）和非洛地平属于钙通道阻滞剂，可以进一步降低血压，但可能需要与ACEI或ARB联合使用。
+综上所述，最合适的联合用药方案是（A）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平。</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2858,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>（B）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据患者的年龄、血压值、实验室检查结果以及既往史，我们可以得出以下结论：
+1. 患者年龄为59岁，属于中老年人群，需要关注心血管风险。
+2. 收缩压（SBP）144 mmHg，舒张压（DBP）97 mmHg，属于高血压2级（高度危险）。
+3. 白蛋白尿为144 mg/24h，餐后2小时血糖10.0 mmol/L，空腹血糖7.6 mmol/L，血肌酐44 μmol/L，表明患者存在糖尿病、肾功能损害及蛋白尿，属于高血压合并糖尿病肾病（高度危险）。
+4. 患者有稳定性心绞痛，说明患者存在冠心病的风险。
+根据上述信息，患者属于高血压2级，合并糖尿病、肾功能损害及蛋白尿，同时伴有冠心病，属于高血压高危组。
+根据《中国高血压防治指南2018》，对于高血压高危组的患者，推荐使用的药物包括：
+- ACEI（血管紧张素转化酶抑制剂）
+- ARB（血管紧张素受体阻滞剂）
+- 钙通道阻滞剂（CCB）
+- β受体阻滞剂
+- 醛固酮受体拮抗剂
+因此，根据患者的病情和上述药物推荐，最合适的联合用药方案是（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂。</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2924,15 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>（A）非二氢吡啶类CCB,ARB,噻嗪类利尿剂</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们需要考虑多个因素，包括年龄、血压、心率、肾功能、电解质水平以及是否存在其他心血管疾病的危险因素如吸烟、饮酒等。
+根据《中国高血压防治指南2018》，对于84岁的老年男性高血压患者，我们首先需要关注的是降压药物的安全性和耐受性，特别是考虑到患者的年龄和肾功能状况。
+患者目前血压为167/93 mmHg，属于2级高血压；同时，患者的血钾正常，但肾功能轻度受损（血肌酐70 μmol/L），因此需要选择对肾功能影响较小的降压药物。
+在给出的选项中，（A）非二氢吡啶类CCB, ARB, 噻嗪类利尿剂；（B）β受体阻滞剂, ACEI, 二氢吡啶类CCB, 噻嗪类利尿剂；（C）ARB, 二氢吡啶类CCB, 噻嗪类利尿剂；（D）β受体阻滞剂, ARB, 二氢吡啶类CCB, 噻嗪类利尿剂；（E）ARB, β受体阻滞剂, 醛固酮受体拮抗剂, 非洛地平；（F）拉贝洛尔, 硝苯地平；（G）二氢吡啶类CCB, α受体阻滞剂。
+考虑到患者的年龄较大，且肾功能轻度受损，我们应首选对肾功能影响小且能较好控制血压的药物。在二氢吡啶类CCB中，硝苯地平对肾功能的影响较小，但患者年龄较大，可能需要考虑使用对老年患者更友好的药物，如氨氯地平或非洛地平。
+β受体阻滞剂和ACEI通常对肾功能有保护作用，但可能会影响心率，对于高龄患者需要谨慎使用。
+ARB类药物对肾功能影响较小，且能较好地控制血压，是老年高血压治疗的首选药物之一。
+醛固酮受体拮抗剂如螺内酯，虽然对肾功能有保护作用，但可能增加高钾血症的风险，因此对于肾功能轻度受损的患者，需要谨慎使用。
+综上所述，对于这位84岁的老年男性高血压患者，结合其肾功能轻度受损的情况，最合适的联合用药方案可能是（C）ARB, 二氢吡啶类CCB, 噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2985,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>根据《中国高血压防治指南2018》，对于该患者的危险因素分层，我们可以按照以下步骤进行分析：
+1. **年龄**: 患者为57岁，属于中年人群，需要关注血压控制。
+2. **血压水平**: 患者的收缩压（SBP）143 mmHg，舒张压（DBP）96 mmHg，属于高血压2级（中度）。
+3. **心率**: 心率62 bpm，属于正常范围。
+4. **体重指数（BMI）**: BMI为30.0 kg/m²，属于超重。
+5. **血脂水平**: LDL-C为4.8 mmol/L，总胆固醇为6.3 mmol/L，提示存在高胆固醇血症。
+6. **肾功能**: 血肌酐为28 μmol/L，在正常范围内。
+7. **电解质水平**: 血钾浓度为3.8 mmol/L，略高于正常范围（正常范围3.5-5.0 mmol/L）。
+8. **治疗史**: 已采取生活方式干预，但血压控制不佳。
+9. **既往史**: 有稳定性心绞痛，需要特别关注心血管风险。
+10. **家族史**: 无家族病史记录，但需考虑遗传因素对心血管风险的影响。
+根据上述分析，患者的心血管疾病危险因素包括高血压、高胆固醇血症以及高钾血症。因此，治疗方案需要综合考虑降压效果、对心脏的保护作用以及对高钾血症的影响。
+选项分析如下：
+（A）拉贝洛尔,硝苯地平 - 拉贝洛尔是α受体阻滞剂，硝苯地平是钙通道阻滞剂（CCB），两者均可用于降压，但拉贝洛尔可能增加高钾血症的风险。
+（B）二氢吡啶类CCB,保钾利尿剂 - 二氢吡啶类CCB如非洛地平，与保钾利尿剂合用，可以降压同时减少高钾血症的风险。
+（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平 - ACEI和β受体阻滞剂对心脏有保护作用，但β受体阻滞剂可能增加高钾血症的风险，且ACEI和β受体阻滞剂可能增加胆固醇水平。
+（D）ARB,噻嗪类利尿剂 - ARB对心脏有保护作用，噻嗪类利尿剂可帮助控制血压，但可能增加胆固醇水平。
+（E）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平 - ARNI（血管紧张素受体与神经生长因子抑制剂）对心脏有保护作用，但可能增加胆固醇水平。
+（F）β受体阻滞剂,噻嗪类利尿剂 - β受体阻滞剂可能增加高钾血症的风险，噻嗪类利尿剂有助于控制血压。
+（G）ARB,β受体阻滞剂 - ARB对心脏有保护作用，β受体阻滞剂可能增加高钾血症的风险。
+综合以上分析，最合适的联合用药方案是（B）二氢吡啶类CCB,保钾利尿剂。</t>
         </is>
       </c>
     </row>
@@ -2579,7 +3058,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的心血管疾病危险因素进行分层。
+根据《中国高血压防治指南2018》，高血压的危险分层主要依据以下因素：
+1. 血压水平
+2. 其他心血管危险因素
+3. 其他临床情况
+根据患者描述，患者年龄54岁，收缩压148 mmHg，舒张压92 mmHg，心率62 bpm，有慢性心力衰竭病史，LDL-C为3.6 mmol/L，总胆固醇为6.6 mmol/L，餐后2小时血糖为10.0 mmol/L，HDL-C为0.8 mmol/L，甘油三酯为1.8 mmol/L，空腹血糖为6.4 mmol/L，血肌酐为32 μmol/L，血钾浓度为3.8 mmol/L。
+根据上述信息，患者属于高血压2级（中等风险），伴有糖尿病、高脂血症、心力衰竭等心血管危险因素。因此，患者需要综合治疗，包括降压药物和生活方式干预。
+根据《中国高血压防治指南2018》，对于合并糖尿病的高血压患者，推荐使用ACEI或ARB类药物，同时配合β受体阻滞剂和醛固酮受体拮抗剂。对于心力衰竭患者，推荐使用ARNI（Angiotensin II Receptor Neutralization）类药物。
+因此，根据患者的情况，最适合的联合用药方案是（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂。</t>
         </is>
       </c>
     </row>
@@ -2632,7 +3119,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据《中国高血压防治指南2018》，高血压的危险分层主要依据年龄、血压水平、是否伴有其他心血管疾病危险因素或疾病。
+对于这位84岁的男性患者，其收缩压（SBP）为186 mmHg，属于3级高血压（高危组）；舒张压（DBP）为54 mmHg，属于正常范围。由于患者年龄较大，属于高龄高血压患者，因此需要特别关注。
+此外，患者的血钾浓度为4.0 mmol/L，处于正常范围；血肌酐为70 μmol/L，也处于正常范围。
+患者无既往病史、手术史和个人史，无吸烟或饮酒史，无家族病史。
+综上所述，该患者属于高龄高血压患者，无其他心血管疾病危险因素或疾病，因此属于低危组。
+根据《中国高血压防治指南2018》，对于低危组的高血压患者，首选的单药治疗方案是ACEI或ARB。
+因此，对于这位患者，最合适的联合用药方案是ACEI+ARB。
+所以，正确答案是（A）ACEI,二氢吡啶类CCB,噻嗪类利尿剂。</t>
         </is>
       </c>
     </row>
@@ -2685,7 +3180,39 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
+          <t>首先，我们来分析这个患者的危险因素分层。
+根据《中国高血压防治指南2018》，高血压的危险分层主要依据以下因素：
+1. 年龄（≥65岁为高风险）；
+2. 血压水平（≥180/110 mmHg为高风险）；
+3. 合并糖尿病；
+4. 合并心血管疾病；
+5. 合并肾脏疾病；
+6. 合并脑血管疾病；
+7. 合并外周血管疾病；
+8. 合并血脂异常；
+9. 合并肥胖；
+10. 合并高尿酸血症；
+11. 合并睡眠呼吸暂停综合征；
+12. 合并精神疾病；
+13. 合并药物滥用；
+14. 合并其他系统疾病。
+根据患者描述，该患者有缺血性脑卒中、颅内大动脉粥样硬化性狭窄等心血管疾病，因此属于高风险人群。
+接下来，我们来看用药方案的选择。
+（A）ARB,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平
+（B）ARNI,噻嗪类利尿剂
+（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平
+（D）拉贝洛尔,肼屈嗪
+（E）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平
+（F）β受体阻滞剂,二氢吡啶类CCB
+（G）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平
+根据《中国高血压防治指南2018》，对于高血压合并心血管疾病的患者，首选的降压药物包括：
+1. ACEI（血管紧张素转化酶抑制剂）；
+2. ARB（血管紧张素II受体阻滞剂）；
+3. β受体阻滞剂；
+4. 醛固酮受体拮抗剂；
+5. CCB（钙通道阻滞剂）。
+对于合并心血管疾病的患者，应避免使用利尿剂，因为利尿剂可能加重心衰。
+因此，根据上述分析，最适合该患者的联合用药方案是（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平。</t>
         </is>
       </c>
     </row>
@@ -2738,7 +3265,23 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据患者的年龄、血压值、心率以及既往有稳定性心绞痛的情况，我们可以初步判断该患者属于高血压2级，伴有靶器官损害（稳定性心绞痛）。
+接下来，我们根据《中国高血压防治指南2018》对高血压的药物治疗原则进行分析：
+1. 对于高血压2级的患者，首选的药物治疗是ACEI或ARB类药物。
+2. 如果患者伴有左室肥厚或心绞痛，可以考虑使用β受体阻滞剂。
+3. 对于伴有肾功能不全的患者，可以使用醛固酮受体拮抗剂。
+4. 若患者合并糖尿病，可以使用CCB类药物。
+根据上述原则，我们可以排除一些选项：
+- 选项（A）甲基多巴,肼屈嗪：这些药物已经较少使用，且不是首选治疗高血压的药物。
+- 选项（B）二氢吡啶类CCB,非二氢吡啶类CCB：对于合并糖尿病的高血压患者，可以考虑使用CCB类药物，但并非首选。
+- 选项（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平：这个组合涵盖了多种降压药物，但考虑到患者有稳定性心绞痛，β受体阻滞剂可能不是最佳选择。
+- 选项（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平：ARNI（Angiotensin Receptor Neprilysin Inhibitor）是一种新型降压药物，但患者没有糖尿病，所以可能不是首选。
+- 选项（E）β受体阻滞剂,二氢吡啶类CCB：这个组合没有涵盖到ACEI或ARB类药物，不符合高血压2级的治疗原则。
+- 选项（F）ARB,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平：这个组合没有涵盖到ACEI或ARB类药物，不符合高血压2级的治疗原则。
+- 选项（G）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平：同上，这个组合没有涵盖到ACEI或ARB类药物，不符合高血压2级的治疗原则。
+因此，根据《中国高血压防治指南2018》，最合适的联合用药方案应该是包含ACEI或ARB类药物的组合。考虑到患者有稳定性心绞痛，β受体阻滞剂可能不是最佳选择。所以，最合适的选项可能是：
+（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平
+这个组合涵盖了ACEI或ARB类药物，同时考虑到了患者的心绞痛情况，并包含了其他必要的降压药物。</t>
         </is>
       </c>
     </row>
@@ -2791,7 +3334,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、是否存在其他心血管疾病风险因素（如糖尿病、血脂异常、吸烟、肥胖等）以及是否存在靶器官损害或并发症。
+在这个案例中，患者是一个43岁的男性，有高血压（SBP 147 mmHg，DBP 94 mmHg），同时伴有糖尿病和轻度蛋白尿（白蛋白尿为330 mg/24h）。这些因素都提示患者存在心血管疾病的高风险。
+根据指南，对于高血压合并糖尿病的患者，推荐使用ACEI（血管紧张素转换酶抑制剂）或ARB（血管紧张素受体阻滞剂）类药物，因为它们可以降低心血管事件的风险。同时，由于患者有蛋白尿，可能需要使用ACEI或ARB类药物来减少蛋白尿。
+β受体阻滞剂可以用于降低心率和降低血压，对于合并糖尿病的高血压患者是推荐的。醛固酮受体拮抗剂（MRA）也可以用于降低血压，并且对于合并糖尿病的高血压患者是推荐的。
+噻嗪类利尿剂通常用于治疗高血压，但考虑到患者有糖尿病，可能更倾向于使用ACEI或ARB类药物。
+氨氯地平是一种钙通道阻滞剂，对于合并糖尿病的高血压患者也是推荐的。
+因此，结合上述分析，最合适的联合用药方案可能是包含ACEI或ARB、β受体阻滞剂和醛固酮受体拮抗剂的方案。然而，由于患者有糖尿病，ACEI或ARB药物可能是首选。
+所以，根据患者的描述和《中国高血压防治指南2018》，最合适的联合用药方案应该是（A）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平或者（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平。</t>
         </is>
       </c>
     </row>
@@ -2844,7 +3394,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>（C）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平</t>
+          <t>根据《中国高血压防治指南2018》，对于高血压患者的风险分层主要依据血压水平、是否存在其他心血管危险因素以及并发症情况。
+患者信息：44岁男性，收缩压158 mmHg，舒张压96 mmHg，心率63 bpm。
+体格检查：心率正常范围，血压偏高。
+辅助检查：GFR为10 ml/min*1.73/m^2，血钾浓度为4.0 mmol/L，提示肾功能受损。
+药物治疗史：已采取生活方式干预。
+既往史：慢性肾病5期，正在进行透析治疗。
+个人史：无吸烟或饮酒史记录。
+家族史：无家族病史记录。
+根据上述信息，患者存在以下心血管疾病的危险因素：
+- 高血压：收缩压和舒张压均高于正常值。
+- 慢性肾病5期：肾功能严重受损，需要透析治疗。
+- 血钾浓度正常：未超过5.5 mmol/L，无需调整降压药物。
+根据《中国高血压防治指南2018》，对于合并肾功能不全的高血压患者，推荐使用ACEI或ARB类药物，以降低蛋白尿和保护肾脏功能。同时，由于患者血压较高，可能需要联合使用其他类型的降压药物。
+因此，根据患者的病情和《中国高血压防治指南2018》的建议，最合适的联合用药方案是（D）β受体阻滞剂, ACEI。</t>
         </is>
       </c>
     </row>
@@ -2897,7 +3460,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》来评估这位患者的危险因素分层。根据患者描述的信息，我们可以得出以下结论：
+1. 年龄：50岁，属于中年人群，但尚未达到老年高血压的诊断标准。
+2. 血压：收缩压（SBP）147 mmHg，舒张压（DBP）96 mmHg，属于2级高血压。
+3. 心率：74 bpm，正常范围，不影响高血压风险评估。
+4. 实验室检查：血钾浓度为4.0 mmol/L，在正常范围内；血肌酐为60 μmol/L，也正常；24小时尿液检查显示白蛋白尿浓度为70 mg/24h，GFR为100.0 ml/min*1.73/m²，表明存在轻度肾功能损害，但尚未达到糖尿病肾病分期。
+5. 药物治疗史：已采取生活方式干预，但未使用降压药物。
+6. 既往史、手术史和个人史、家族史：无其他相关病史。
+根据上述信息，该患者的危险因素分层属于中危组。《中国高血压防治指南2018》推荐的中危组的治疗方案包括：
+- 单药治疗：ACEI、ARB或钙通道阻滞剂（CCB）。
+- 联合治疗：ACEI+ARB、ACEI+CCB、ARB+CCB。
+根据患者的血压水平，可以考虑使用单药治疗，但由于患者存在轻度肾功能损害，因此不推荐使用ACEI。因此，我们可以排除选项（A）和（B）。
+接下来，我们考虑联合治疗方案。由于患者存在轻度肾功能损害，应避免使用对肾脏有潜在危害的药物，如利尿剂。因此，我们可以排除选项（C）、（D）、（E）和（F）。
+最后，我们考虑剩余的选择项（G）。ARNI（Angiotensin Receptor Neprilysis Inhibitor）是近年来新推出的降压药，对于肾功能不全的患者具有较好的耐受性。β受体阻滞剂和醛固酮受体拮抗剂也是常用的降压药物，且对肾功能影响较小。噻嗪类利尿剂虽然对肾功能有潜在危害，但在联合用药时，可以适量使用以控制血压。
+综上所述，根据患者的病情和《中国高血压防治指南2018》的建议，选项（G）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂可能是适合患者的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -2950,7 +3526,25 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB,ACEI,β受体阻滞剂</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据提供的信息，患者是一个50岁的男性，有高血压（SBP 147 mmHg，DBP 96 mmHg），糖尿病病史，以及正常血钾和血肌酐水平。
+根据《中国高血压防治指南2018》，高血压的危险因素分层主要考虑以下因素：
+- 年龄：≥65岁为高风险；
+- 血压：≥140/90 mmHg为高风险；
+- 合并症：如糖尿病、高脂血症、心脏病等；
+- 靶器官损害：如左心室肥厚、肾功能异常等；
+- 家族史：有高血压家族史者风险增加。
+在本例中，患者年龄为50岁，血压高于正常范围，且合并有糖尿病，因此属于高血压的高危人群。
+接下来，我们考虑治疗方案的选择。根据《中国高血压防治指南2018》，对于高血压合并糖尿病的患者，推荐使用ACEI、ARB、钙通道阻滞剂（CCB）、β受体阻滞剂、醛固酮受体拮抗剂等药物。
+结合以上分析，我们可以排除一些选项：
+- 选项（A）只包含ACEI和噻嗪类利尿剂，对于合并糖尿病的高血压患者来说，可能需要更全面的降压治疗，因此可能不够全面；
+- 选项（B）只包含二氢吡啶类CCB和ACEI，同样可能不足以控制合并糖尿病的高血压患者的血压；
+- 选项（C）包含了ARB、β受体阻滞剂、醛固酮受体拮抗剂、袢利尿剂和非洛地平，这些药物种类较多，但考虑到患者是高血压合并糖尿病，可能需要更全面的降压治疗，因此可能不够全面；
+- 选项（D）包含了ARB、β受体阻滞剂、醛固酮受体拮抗剂、噻嗪类利尿剂和非洛地平，这些药物种类较多，但考虑到患者是高血压合并糖尿病，可能需要更全面的降压治疗，因此可能不够全面；
+- 选项（E）和（F）都包含了ARNI，但ARNI主要用于心力衰竭的治疗，对于高血压合并糖尿病的患者来说，可能不是首选的药物；
+- 选项（G）包含了ACEI、β受体阻滞剂、醛固酮受体拮抗剂、噻嗪类利尿剂和氨氯地平，这些药物种类较多，但考虑到患者是高血压合并糖尿病，可能需要更全面的降压治疗，因此可能不够全面。
+综合以上分析，最合适的联合用药方案应该是：
+（B）二氢吡啶类CCB,ACEI,β受体阻滞剂
+这个方案包括了二氢吡啶类CCB（如氨氯地平），ACEI（如依那普利），以及β受体阻滞剂（如美托洛尔），这些药物在《中国高血压防治指南2018》中被推荐用于高血压合并糖尿病患者的治疗。</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3597,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、肾功能、尿白蛋白排泄率（UAER）以及是否存在其他心血管疾病风险因素。
+在本例中，患者为50岁男性，收缩压147 mmHg，舒张压96 mmHg，心率74 bpm，存在糖尿病肾病，肾小球滤过率（GFR）为50.0 ml/min/1.73 m²，白蛋白尿为70 mg/24h，血钾浓度为4.0 mmol/L，血肌酐为80 μmol/L。
+根据《中国高血压防治指南2018》，该患者的血压水平属于2级高血压，合并有糖尿病肾病，因此属于高血压合并肾脏病变的高危患者。同时，由于患者存在糖尿病肾病，其心血管风险较高，需要综合管理血压、血糖及肾功能。
+在联合用药方案的选择上，考虑到患者有糖尿病肾病，应选择对肾脏保护作用较强的药物。ACEI和ARNI是首选药物，因为它们能降低尿白蛋白排泄率和改善肾功能。β受体阻滞剂和醛固酮受体拮抗剂也能提供额外的肾脏保护。
+因此，最合适的联合用药方案应该是包含ACEI或ARNI、β受体阻滞剂和醛固酮受体拮抗剂的方案。
+根据上述分析，选项（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平；选项（F）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平；选项（G）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂；和选项（H）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂，都是适合该患者的联合用药方案。</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3655,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的心血管疾病危险因素进行分层。根据指南，高血压患者的危险因素包括年龄、性别、血压水平、是否存在其他心血管疾病、肾脏疾病、糖尿病等。
+根据患者描述，患者为44岁男性，收缩压158 mmHg，舒张压96 mmHg，心率63 bpm，存在慢性心力衰竭和慢性肾病5期，正在进行血液透析。这些因素都表明患者属于高血压的高危人群。
+在药物选择方面，指南推荐对于高血压合并心力衰竭的患者，可以使用ACEI（血管紧张素转化酶抑制剂）或ARNI（血管紧张素受体脑啡肽酶抑制剂），β受体阻滞剂，以及利尿剂。对于合并肾病的患者，可以使用ACEI或ARNI，β受体阻滞剂，以及利尿剂。
+因此，根据患者的病情，最适合的联合用药方案应该是包含ACEI或ARNI，β受体阻滞剂，以及利尿剂的方案。
+选项中，（A）ACEI,β受体阻滞剂,襻利尿剂；（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平；（C）ARNI,β受体阻滞剂,襻利尿剂；（D）ARB,β受体阻滞剂,襻利尿剂；（E）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂；（F）β受体阻滞剂,ARB；（G）ACEI,非洛地平。
+根据上述分析，最适合患者的联合用药方案是（C）ARNI,β受体阻滞剂,襻利尿剂。</t>
         </is>
       </c>
     </row>
